--- a/PCB/06 Requirement Management/Product Backlog_V0.1_20150817.xlsx
+++ b/PCB/06 Requirement Management/Product Backlog_V0.1_20150817.xlsx
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User Story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What can we do.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Development team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +328,14 @@
   <si>
     <t xml:space="preserve">As a part of courses maintenance. (Add automatic testing tool related attribute) 
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What we can do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Backlog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -455,43 +455,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -642,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,52 +638,31 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1103,8 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1177,40 +1119,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="17" t="s">
-        <v>11</v>
+      <c r="A1" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="120">
@@ -1219,16 +1161,16 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="120">
@@ -1237,16 +1179,16 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90">
@@ -1255,16 +1197,16 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" customHeight="1">
@@ -1273,16 +1215,16 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90">
@@ -1291,13 +1233,13 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="135">
       <c r="A9" s="9">
@@ -1305,13 +1247,13 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="105">
       <c r="A10" s="9">
@@ -1319,13 +1261,13 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="75">
       <c r="A11" s="9">
@@ -1333,13 +1275,13 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="105">
       <c r="A12" s="4">
@@ -1347,16 +1289,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
+      <c r="F12" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75">
@@ -1365,16 +1307,16 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90">
@@ -1383,16 +1325,16 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>7</v>
+      <c r="F14" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
@@ -1401,13 +1343,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
